--- a/data/trans_orig/IP07A02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A02-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{846604CF-0E68-43AC-93A7-8226EBDDF223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DAF8EA6-08AB-4159-84DA-68541251AE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{55D581F9-19E3-4E5B-9ECF-E1F2DC1FC09B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{991C6B09-2629-4873-94DF-BDB79F320864}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="444">
   <si>
     <t>Menores según frecuencia de haber podido correr bien en 2007 (Tasa respuesta: 47,2%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>52,48%</t>
   </si>
   <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
   </si>
   <si>
     <t>54,39%</t>
   </si>
   <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
   </si>
   <si>
     <t>53,47%</t>
   </si>
   <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -106,28 +106,28 @@
     <t>40,23%</t>
   </si>
   <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
   </si>
   <si>
     <t>34,47%</t>
   </si>
   <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
   </si>
   <si>
     <t>37,25%</t>
   </si>
   <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
   </si>
   <si>
     <t>Moderadamente</t>
@@ -136,1237 +136,1240 @@
     <t>5,87%</t>
   </si>
   <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>Poco</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido correr bien en 2012 (Tasa respuesta: 44,74%)</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
     <t>1,42%</t>
   </si>
   <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido correr bien en 2016 (Tasa respuesta: 47,18%)</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>Poco</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido correr bien en 2012 (Tasa respuesta: 44,74%)</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
   </si>
   <si>
     <t>3,53%</t>
   </si>
   <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido correr bien en 2015 (Tasa respuesta: 47,18%)</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
+    <t>5,42%</t>
   </si>
   <si>
     <t>4,88%</t>
   </si>
   <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
+    <t>7,24%</t>
   </si>
   <si>
     <t>4,2%</t>
   </si>
   <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>1,95%</t>
+    <t>2,02%</t>
   </si>
   <si>
     <t>0,64%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
+    <t>1,83%</t>
   </si>
 </sst>
 </file>
@@ -1778,7 +1781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6757C0-8C5D-4249-A8DD-B36D06DFEFB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBAA2A5-8373-4E53-9120-3B9DF362A0C9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2536,10 +2539,10 @@
         <v>103</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M16" s="7">
         <v>88</v>
@@ -2548,13 +2551,13 @@
         <v>60173</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2569,13 +2572,13 @@
         <v>23924</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H17" s="7">
         <v>53</v>
@@ -2584,13 +2587,13 @@
         <v>36488</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M17" s="7">
         <v>87</v>
@@ -2599,13 +2602,13 @@
         <v>60412</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,13 +2623,13 @@
         <v>2681</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -2635,7 +2638,7 @@
         <v>2823</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>121</v>
@@ -2847,7 +2850,7 @@
         <v>136</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="M22" s="7">
         <v>522</v>
@@ -2856,13 +2859,13 @@
         <v>347984</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2877,13 +2880,13 @@
         <v>134513</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H23" s="7">
         <v>204</v>
@@ -2892,13 +2895,13 @@
         <v>137786</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M23" s="7">
         <v>404</v>
@@ -2907,13 +2910,13 @@
         <v>272300</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2928,13 +2931,13 @@
         <v>15454</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H24" s="7">
         <v>28</v>
@@ -2943,13 +2946,13 @@
         <v>19202</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M24" s="7">
         <v>51</v>
@@ -2958,13 +2961,13 @@
         <v>34655</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2979,13 +2982,13 @@
         <v>2454</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -2994,13 +2997,13 @@
         <v>3825</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>90</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -3009,13 +3012,13 @@
         <v>6279</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,13 +3033,13 @@
         <v>3919</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3051,7 +3054,7 @@
         <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -3060,13 +3063,13 @@
         <v>3919</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,7 +3125,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3141,7 +3144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967627A4-16C9-4988-AF09-AC2B80ACBA56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DACDCAA3-BF3A-4DE8-8B73-0B2651506E45}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3158,7 +3161,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3265,13 +3268,13 @@
         <v>17829</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -3280,13 +3283,13 @@
         <v>17725</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>51</v>
@@ -3295,13 +3298,13 @@
         <v>35554</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,13 +3319,13 @@
         <v>24586</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H5" s="7">
         <v>42</v>
@@ -3331,13 +3334,13 @@
         <v>30151</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>60</v>
+        <v>188</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M5" s="7">
         <v>77</v>
@@ -3346,13 +3349,13 @@
         <v>54736</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,13 +3370,13 @@
         <v>2815</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>192</v>
+        <v>91</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -3382,13 +3385,13 @@
         <v>4551</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -3397,13 +3400,13 @@
         <v>7366</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>197</v>
+        <v>50</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,13 +3421,13 @@
         <v>624</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3439,7 +3442,7 @@
         <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -3454,7 +3457,7 @@
         <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,7 +3478,7 @@
         <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3484,13 +3487,13 @@
         <v>656</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3499,13 +3502,13 @@
         <v>656</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,13 +3576,13 @@
         <v>110493</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H10" s="7">
         <v>116</v>
@@ -3588,13 +3591,13 @@
         <v>79688</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="M10" s="7">
         <v>276</v>
@@ -3603,13 +3606,13 @@
         <v>190181</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,13 +3627,13 @@
         <v>96272</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H11" s="7">
         <v>156</v>
@@ -3639,13 +3642,13 @@
         <v>110192</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M11" s="7">
         <v>297</v>
@@ -3654,13 +3657,13 @@
         <v>206464</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,13 +3678,13 @@
         <v>14513</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H12" s="7">
         <v>20</v>
@@ -3690,10 +3693,10 @@
         <v>14320</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>230</v>
@@ -3741,7 +3744,7 @@
         <v>1943</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>237</v>
@@ -3762,7 +3765,7 @@
         <v>239</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3777,13 +3780,13 @@
         <v>3234</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>32</v>
+        <v>241</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3807,13 +3810,13 @@
         <v>3234</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,13 +3884,13 @@
         <v>23106</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -3896,13 +3899,13 @@
         <v>25738</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>249</v>
+        <v>177</v>
       </c>
       <c r="M16" s="7">
         <v>71</v>
@@ -4195,7 +4198,7 @@
         <v>281</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>176</v>
+        <v>282</v>
       </c>
       <c r="H22" s="7">
         <v>178</v>
@@ -4204,13 +4207,13 @@
         <v>123151</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M22" s="7">
         <v>398</v>
@@ -4219,13 +4222,13 @@
         <v>274579</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4243,13 @@
         <v>150644</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H23" s="7">
         <v>241</v>
@@ -4255,13 +4258,13 @@
         <v>171322</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M23" s="7">
         <v>460</v>
@@ -4270,13 +4273,13 @@
         <v>321966</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,13 +4294,13 @@
         <v>20695</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H24" s="7">
         <v>33</v>
@@ -4306,13 +4309,13 @@
         <v>24218</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M24" s="7">
         <v>64</v>
@@ -4321,13 +4324,13 @@
         <v>44913</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>82</v>
+        <v>304</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,13 +4345,13 @@
         <v>4812</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -4357,13 +4360,13 @@
         <v>2622</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>237</v>
+        <v>311</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -4372,13 +4375,13 @@
         <v>7433</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>91</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,13 +4396,13 @@
         <v>3234</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>166</v>
+        <v>315</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -4408,13 +4411,13 @@
         <v>656</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>83</v>
+        <v>317</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -4423,13 +4426,13 @@
         <v>3890</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>237</v>
+        <v>171</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4485,7 +4488,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -4504,7 +4507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922EFDA1-0A74-47EE-975B-48DD7D587AB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8038F9-4027-46B3-8324-4A2BD1E2E20A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4521,7 +4524,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4628,13 +4631,13 @@
         <v>24768</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -4643,13 +4646,13 @@
         <v>17431</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="M4" s="7">
         <v>58</v>
@@ -4658,13 +4661,13 @@
         <v>42199</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,13 +4682,13 @@
         <v>10369</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -4694,13 +4697,13 @@
         <v>11010</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="M5" s="7">
         <v>32</v>
@@ -4709,13 +4712,13 @@
         <v>21379</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4736,7 +4739,7 @@
         <v>42</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -4745,13 +4748,13 @@
         <v>3373</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -4760,13 +4763,13 @@
         <v>3373</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4781,13 +4784,13 @@
         <v>891</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4802,7 +4805,7 @@
         <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4811,13 +4814,13 @@
         <v>891</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4838,7 +4841,7 @@
         <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4853,7 +4856,7 @@
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4936,13 +4939,13 @@
         <v>156272</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="H10" s="7">
         <v>209</v>
@@ -4951,13 +4954,13 @@
         <v>144321</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="M10" s="7">
         <v>423</v>
@@ -4966,13 +4969,13 @@
         <v>300593</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4987,13 +4990,13 @@
         <v>77952</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="H11" s="7">
         <v>130</v>
@@ -5002,13 +5005,13 @@
         <v>91091</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="M11" s="7">
         <v>236</v>
@@ -5017,13 +5020,13 @@
         <v>169043</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5038,13 +5041,13 @@
         <v>7226</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>151</v>
+        <v>368</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -5053,13 +5056,13 @@
         <v>10762</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>35</v>
+        <v>371</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>364</v>
+        <v>51</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="M12" s="7">
         <v>25</v>
@@ -5068,13 +5071,13 @@
         <v>17988</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,10 +5095,10 @@
         <v>129</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -5104,13 +5107,13 @@
         <v>3768</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>93</v>
+        <v>376</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -5119,13 +5122,13 @@
         <v>6009</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>312</v>
+        <v>378</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>93</v>
+        <v>239</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>372</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5140,13 +5143,13 @@
         <v>2300</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -5155,13 +5158,13 @@
         <v>617</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>205</v>
+        <v>44</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -5170,13 +5173,13 @@
         <v>2917</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5244,13 +5247,13 @@
         <v>56158</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="H16" s="7">
         <v>51</v>
@@ -5259,13 +5262,13 @@
         <v>35971</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="M16" s="7">
         <v>128</v>
@@ -5274,13 +5277,13 @@
         <v>92128</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,13 +5298,13 @@
         <v>15715</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -5310,13 +5313,13 @@
         <v>33058</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
@@ -5325,13 +5328,13 @@
         <v>48773</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>174</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5346,13 +5349,13 @@
         <v>5476</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>208</v>
+        <v>400</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -5361,13 +5364,13 @@
         <v>3253</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -5376,13 +5379,13 @@
         <v>8729</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>228</v>
+        <v>406</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5403,7 +5406,7 @@
         <v>41</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5412,13 +5415,13 @@
         <v>638</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -5427,13 +5430,13 @@
         <v>1351</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5454,7 +5457,7 @@
         <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5463,13 +5466,13 @@
         <v>792</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5478,13 +5481,13 @@
         <v>792</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>407</v>
+        <v>376</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5552,13 +5555,13 @@
         <v>237197</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="H22" s="7">
         <v>284</v>
@@ -5567,13 +5570,13 @@
         <v>197723</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="M22" s="7">
         <v>609</v>
@@ -5582,13 +5585,13 @@
         <v>434920</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>416</v>
+        <v>353</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5603,13 +5606,13 @@
         <v>104035</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="H23" s="7">
         <v>193</v>
@@ -5618,13 +5621,13 @@
         <v>135159</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="M23" s="7">
         <v>336</v>
@@ -5633,13 +5636,13 @@
         <v>239194</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5654,13 +5657,13 @@
         <v>12702</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>266</v>
+        <v>433</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>427</v>
+        <v>278</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="H24" s="7">
         <v>24</v>
@@ -5669,13 +5672,13 @@
         <v>17388</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>430</v>
+        <v>53</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="M24" s="7">
         <v>42</v>
@@ -5684,13 +5687,13 @@
         <v>30089</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,13 +5708,13 @@
         <v>3845</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>435</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>367</v>
+        <v>263</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -5720,13 +5723,13 @@
         <v>4406</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>436</v>
+        <v>90</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>437</v>
+        <v>163</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -5735,13 +5738,13 @@
         <v>8251</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>235</v>
+        <v>170</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5756,13 +5759,13 @@
         <v>2300</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -5771,13 +5774,13 @@
         <v>1409</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -5786,13 +5789,13 @@
         <v>3709</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>407</v>
+        <v>376</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,7 +5851,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A02-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DAF8EA6-08AB-4159-84DA-68541251AE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{099E6136-E8E8-420F-8B12-AF93D02E9FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{991C6B09-2629-4873-94DF-BDB79F320864}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{81A45B6A-C6B3-403D-B189-A6A0BAAB763C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -43,10 +43,10 @@
     <t>Menores según frecuencia de haber podido correr bien en 2007 (Tasa respuesta: 47,2%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,1291 +73,1291 @@
     <t>Muchísimo</t>
   </si>
   <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
     <t>52,48%</t>
   </si>
   <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
   </si>
   <si>
     <t>53,47%</t>
   </si>
   <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
   </si>
   <si>
     <t>Mucho</t>
   </si>
   <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
     <t>40,23%</t>
   </si>
   <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
   </si>
   <si>
     <t>37,25%</t>
   </si>
   <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
   </si>
   <si>
     <t>Moderadamente</t>
   </si>
   <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
     <t>5,87%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
   </si>
   <si>
     <t>7,95%</t>
   </si>
   <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
   </si>
   <si>
     <t>Poco</t>
   </si>
   <si>
+    <t>1,25%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>5,07%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>3,24%</t>
+    <t>2,62%</t>
   </si>
   <si>
     <t>Nada</t>
   </si>
   <si>
+    <t>2,49%</t>
+  </si>
+  <si>
     <t>1,41%</t>
   </si>
   <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido correr bien en 2012 (Tasa respuesta: 44,74%)</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
     <t>7,44%</t>
   </si>
   <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
   </si>
   <si>
     <t>3,48%</t>
   </si>
   <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido correr bien en 2016 (Tasa respuesta: 47,18%)</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
   </si>
   <si>
     <t>3,03%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido correr bien en 2012 (Tasa respuesta: 44,74%)</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
   </si>
   <si>
     <t>4,29%</t>
   </si>
   <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido correr bien en 2016 (Tasa respuesta: 47,18%)</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>2,73%</t>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
   </si>
   <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
   </si>
   <si>
     <t>65,87%</t>
   </si>
   <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
   </si>
   <si>
     <t>60,73%</t>
   </si>
   <si>
-    <t>63,59%</t>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
   </si>
   <si>
     <t>28,89%</t>
   </si>
   <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
+    <t>25,19%</t>
   </si>
   <si>
     <t>33,4%</t>
   </si>
   <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
   </si>
   <si>
     <t>3,53%</t>
   </si>
   <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
   </si>
   <si>
     <t>4,2%</t>
   </si>
   <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
   </si>
   <si>
     <t>1,15%</t>
@@ -1366,10 +1366,10 @@
     <t>2,02%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
   </si>
 </sst>
 </file>
@@ -1781,7 +1781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBAA2A5-8373-4E53-9120-3B9DF362A0C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3B8546-BD93-4E87-AE91-3985BF77D0C6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1899,10 +1899,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D4" s="7">
-        <v>24787</v>
+        <v>27563</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1914,10 +1914,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I4" s="7">
-        <v>27563</v>
+        <v>24787</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1950,10 +1950,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7">
-        <v>19001</v>
+        <v>17468</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1965,10 +1965,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I5" s="7">
-        <v>17468</v>
+        <v>19001</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2001,10 +2001,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7">
-        <v>2774</v>
+        <v>5011</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2016,10 +2016,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I6" s="7">
-        <v>5011</v>
+        <v>2774</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2052,10 +2052,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>632</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -2067,16 +2067,16 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>632</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>45</v>
@@ -2091,7 +2091,7 @@
         <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>47</v>
@@ -2103,28 +2103,28 @@
         <v>48</v>
       </c>
       <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>667</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>42</v>
@@ -2142,7 +2142,7 @@
         <v>52</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>53</v>
@@ -2154,25 +2154,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>76</v>
+      </c>
+      <c r="D9" s="7">
+        <v>50674</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="7">
         <v>71</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>47230</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="7">
-        <v>76</v>
-      </c>
-      <c r="I9" s="7">
-        <v>50674</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -2207,10 +2207,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="D10" s="7">
-        <v>129952</v>
+        <v>105509</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>56</v>
@@ -2222,10 +2222,10 @@
         <v>58</v>
       </c>
       <c r="H10" s="7">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="I10" s="7">
-        <v>105509</v>
+        <v>129952</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>59</v>
@@ -2258,10 +2258,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D11" s="7">
-        <v>91588</v>
+        <v>83831</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>65</v>
@@ -2273,10 +2273,10 @@
         <v>67</v>
       </c>
       <c r="H11" s="7">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="I11" s="7">
-        <v>83831</v>
+        <v>91588</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>68</v>
@@ -2309,10 +2309,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D12" s="7">
-        <v>9999</v>
+        <v>11368</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>74</v>
@@ -2324,10 +2324,10 @@
         <v>76</v>
       </c>
       <c r="H12" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I12" s="7">
-        <v>11368</v>
+        <v>9999</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>77</v>
@@ -2348,10 +2348,10 @@
         <v>80</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2360,34 +2360,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2034</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="7">
         <v>4</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>2454</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2034</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -2396,13 +2396,13 @@
         <v>4488</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2411,34 +2411,34 @@
         <v>48</v>
       </c>
       <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="7">
         <v>5</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>3251</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -2447,13 +2447,13 @@
         <v>3251</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2462,25 +2462,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>303</v>
+      </c>
+      <c r="D15" s="7">
+        <v>202742</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="7">
         <v>358</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>237244</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="7">
-        <v>303</v>
-      </c>
-      <c r="I15" s="7">
-        <v>202742</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>54</v>
@@ -2509,40 +2509,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>37</v>
+      </c>
+      <c r="D16" s="7">
+        <v>26384</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="7">
         <v>51</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>33789</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H16" s="7">
-        <v>37</v>
-      </c>
-      <c r="I16" s="7">
-        <v>26384</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M16" s="7">
         <v>88</v>
@@ -2551,13 +2551,13 @@
         <v>60173</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2566,34 +2566,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>53</v>
+      </c>
+      <c r="D17" s="7">
+        <v>36488</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" s="7">
         <v>34</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>23924</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H17" s="7">
-        <v>53</v>
-      </c>
-      <c r="I17" s="7">
-        <v>36488</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>87</v>
@@ -2602,13 +2602,13 @@
         <v>60412</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,31 +2620,31 @@
         <v>4</v>
       </c>
       <c r="D18" s="7">
-        <v>2681</v>
+        <v>2823</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
       </c>
       <c r="I18" s="7">
-        <v>2823</v>
+        <v>2681</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M18" s="7">
         <v>8</v>
@@ -2653,13 +2653,13 @@
         <v>5504</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2668,34 +2668,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>1159</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1159</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -2704,13 +2704,13 @@
         <v>1159</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2740,13 +2740,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2755,13 +2755,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2770,25 +2770,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>96</v>
+      </c>
+      <c r="D21" s="7">
+        <v>66854</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="7">
         <v>89</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>60394</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" s="7">
-        <v>96</v>
-      </c>
-      <c r="I21" s="7">
-        <v>66854</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>54</v>
@@ -2823,34 +2823,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>237</v>
+      </c>
+      <c r="D22" s="7">
+        <v>159456</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H22" s="7">
         <v>285</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>188528</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H22" s="7">
-        <v>237</v>
-      </c>
-      <c r="I22" s="7">
-        <v>159456</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="M22" s="7">
         <v>522</v>
@@ -2859,13 +2859,13 @@
         <v>347984</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2874,34 +2874,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>204</v>
+      </c>
+      <c r="D23" s="7">
+        <v>137786</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H23" s="7">
         <v>200</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>134513</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H23" s="7">
-        <v>204</v>
-      </c>
-      <c r="I23" s="7">
-        <v>137786</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M23" s="7">
         <v>404</v>
@@ -2910,13 +2910,13 @@
         <v>272300</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2925,34 +2925,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>28</v>
+      </c>
+      <c r="D24" s="7">
+        <v>19202</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H24" s="7">
         <v>23</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>15454</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H24" s="7">
-        <v>28</v>
-      </c>
-      <c r="I24" s="7">
-        <v>19202</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M24" s="7">
         <v>51</v>
@@ -2961,13 +2961,13 @@
         <v>34655</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2976,34 +2976,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>6</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3825</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H25" s="7">
         <v>4</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>2454</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="H25" s="7">
-        <v>6</v>
-      </c>
-      <c r="I25" s="7">
-        <v>3825</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -3012,13 +3012,13 @@
         <v>6279</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3027,31 +3027,31 @@
         <v>48</v>
       </c>
       <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H26" s="7">
         <v>6</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>3919</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>169</v>
@@ -3078,25 +3078,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>475</v>
+      </c>
+      <c r="D27" s="7">
+        <v>320269</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="7">
         <v>518</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>344868</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" s="7">
-        <v>475</v>
-      </c>
-      <c r="I27" s="7">
-        <v>320269</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>54</v>
@@ -3144,7 +3144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DACDCAA3-BF3A-4DE8-8B73-0B2651506E45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C69D3F-8548-44DB-90F0-8E93DDA33AEC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3262,10 +3262,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="7">
-        <v>17829</v>
+        <v>17725</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>175</v>
@@ -3277,10 +3277,10 @@
         <v>177</v>
       </c>
       <c r="H4" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I4" s="7">
-        <v>17725</v>
+        <v>17829</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>178</v>
@@ -3313,10 +3313,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D5" s="7">
-        <v>24586</v>
+        <v>30151</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>184</v>
@@ -3328,10 +3328,10 @@
         <v>186</v>
       </c>
       <c r="H5" s="7">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I5" s="7">
-        <v>30151</v>
+        <v>24586</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>187</v>
@@ -3355,7 +3355,7 @@
         <v>191</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>192</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,25 +3364,25 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>2815</v>
+        <v>4551</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>194</v>
       </c>
       <c r="H6" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I6" s="7">
-        <v>4551</v>
+        <v>2815</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>195</v>
@@ -3400,13 +3400,13 @@
         <v>7366</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>50</v>
+        <v>198</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,34 +3415,34 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>624</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>41</v>
+        <v>202</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -3451,13 +3451,13 @@
         <v>624</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,34 +3466,34 @@
         <v>48</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>205</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>656</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3502,13 +3502,13 @@
         <v>656</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,25 +3517,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>75</v>
+      </c>
+      <c r="D9" s="7">
+        <v>53083</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="7">
         <v>65</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>45853</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="7">
-        <v>75</v>
-      </c>
-      <c r="I9" s="7">
-        <v>53083</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -3570,34 +3570,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>116</v>
+      </c>
+      <c r="D10" s="7">
+        <v>79688</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H10" s="7">
         <v>160</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>110493</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H10" s="7">
-        <v>116</v>
-      </c>
-      <c r="I10" s="7">
-        <v>79688</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M10" s="7">
         <v>276</v>
@@ -3606,13 +3606,13 @@
         <v>190181</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,34 +3621,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>156</v>
+      </c>
+      <c r="D11" s="7">
+        <v>110192</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H11" s="7">
         <v>141</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>96272</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H11" s="7">
-        <v>156</v>
-      </c>
-      <c r="I11" s="7">
-        <v>110192</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M11" s="7">
         <v>297</v>
@@ -3657,13 +3657,13 @@
         <v>206464</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3672,34 +3672,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>20</v>
+      </c>
+      <c r="D12" s="7">
+        <v>14320</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H12" s="7">
         <v>22</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>14513</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H12" s="7">
-        <v>20</v>
-      </c>
-      <c r="I12" s="7">
-        <v>14320</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M12" s="7">
         <v>42</v>
@@ -3708,13 +3708,13 @@
         <v>28834</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>233</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,13 +3723,13 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>3466</v>
+        <v>1943</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>234</v>
+        <v>163</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>235</v>
@@ -3738,19 +3738,19 @@
         <v>236</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>1943</v>
+        <v>3466</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>164</v>
+        <v>237</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -3759,10 +3759,10 @@
         <v>5410</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>240</v>
@@ -3774,34 +3774,34 @@
         <v>48</v>
       </c>
       <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="7">
         <v>5</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>3234</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>46</v>
+        <v>243</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -3810,13 +3810,13 @@
         <v>3234</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,25 +3825,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>295</v>
+      </c>
+      <c r="D15" s="7">
+        <v>206144</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="7">
         <v>333</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>227979</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="7">
-        <v>295</v>
-      </c>
-      <c r="I15" s="7">
-        <v>206144</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>54</v>
@@ -3872,40 +3872,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>36</v>
+      </c>
+      <c r="D16" s="7">
+        <v>25738</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H16" s="7">
         <v>35</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>23106</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="H16" s="7">
-        <v>36</v>
-      </c>
-      <c r="I16" s="7">
-        <v>25738</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>248</v>
+        <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>249</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="M16" s="7">
         <v>71</v>
@@ -3914,13 +3914,13 @@
         <v>48844</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3932,31 +3932,31 @@
         <v>43</v>
       </c>
       <c r="D17" s="7">
-        <v>29787</v>
+        <v>30979</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
       </c>
       <c r="I17" s="7">
-        <v>30979</v>
+        <v>29787</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M17" s="7">
         <v>86</v>
@@ -3965,13 +3965,13 @@
         <v>60766</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,13 +3980,13 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D18" s="7">
-        <v>3366</v>
+        <v>5347</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>262</v>
+        <v>203</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>263</v>
@@ -3995,10 +3995,10 @@
         <v>264</v>
       </c>
       <c r="H18" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I18" s="7">
-        <v>5347</v>
+        <v>3366</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>265</v>
@@ -4034,31 +4034,31 @@
         <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>722</v>
+        <v>678</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>271</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>678</v>
+        <v>722</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -4067,13 +4067,13 @@
         <v>1400</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,13 +4088,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4103,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4118,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,25 +4133,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>87</v>
+      </c>
+      <c r="D21" s="7">
+        <v>62743</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="7">
         <v>84</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>56981</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" s="7">
-        <v>87</v>
-      </c>
-      <c r="I21" s="7">
-        <v>62743</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>54</v>
@@ -4186,34 +4186,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>178</v>
+      </c>
+      <c r="D22" s="7">
+        <v>123151</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H22" s="7">
         <v>220</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>151429</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="H22" s="7">
-        <v>178</v>
-      </c>
-      <c r="I22" s="7">
-        <v>123151</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M22" s="7">
         <v>398</v>
@@ -4222,13 +4222,13 @@
         <v>274579</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,34 +4237,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>241</v>
+      </c>
+      <c r="D23" s="7">
+        <v>171322</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H23" s="7">
         <v>219</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>150644</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="H23" s="7">
-        <v>241</v>
-      </c>
-      <c r="I23" s="7">
-        <v>171322</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M23" s="7">
         <v>460</v>
@@ -4273,13 +4273,13 @@
         <v>321966</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,34 +4288,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>33</v>
+      </c>
+      <c r="D24" s="7">
+        <v>24218</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H24" s="7">
         <v>31</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>20695</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="H24" s="7">
-        <v>33</v>
-      </c>
-      <c r="I24" s="7">
-        <v>24218</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M24" s="7">
         <v>64</v>
@@ -4324,13 +4324,13 @@
         <v>44913</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,34 +4339,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>4</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2622</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H25" s="7">
         <v>7</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>4812</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="J25" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="H25" s="7">
-        <v>4</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2622</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -4375,13 +4375,13 @@
         <v>7433</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>170</v>
+        <v>309</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,34 +4390,34 @@
         <v>48</v>
       </c>
       <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>656</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H26" s="7">
         <v>5</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>3234</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="J26" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="I26" s="7">
-        <v>656</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -4426,13 +4426,13 @@
         <v>3890</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>171</v>
+        <v>311</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>318</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,25 +4441,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>457</v>
+      </c>
+      <c r="D27" s="7">
+        <v>321969</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="7">
         <v>482</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>330813</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" s="7">
-        <v>457</v>
-      </c>
-      <c r="I27" s="7">
-        <v>321969</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>54</v>
@@ -4507,7 +4507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8038F9-4027-46B3-8324-4A2BD1E2E20A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2096B0BA-8C33-48A3-8396-3B593A6989FD}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4524,7 +4524,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4625,34 +4625,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>24</v>
+      </c>
+      <c r="D4" s="7">
+        <v>17431</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H4" s="7">
         <v>34</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>24768</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="H4" s="7">
-        <v>24</v>
-      </c>
-      <c r="I4" s="7">
-        <v>17431</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="M4" s="7">
         <v>58</v>
@@ -4661,13 +4661,13 @@
         <v>42199</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,34 +4676,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7">
+        <v>11010</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H5" s="7">
         <v>15</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>10369</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="H5" s="7">
-        <v>17</v>
-      </c>
-      <c r="I5" s="7">
-        <v>11010</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M5" s="7">
         <v>32</v>
@@ -4712,13 +4712,13 @@
         <v>21379</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>337</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,34 +4727,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3373</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H6" s="7">
         <v>0</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>0</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="H6" s="7">
-        <v>5</v>
-      </c>
-      <c r="I6" s="7">
-        <v>3373</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>339</v>
-      </c>
       <c r="K6" s="7" t="s">
-        <v>340</v>
+        <v>44</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -4763,13 +4763,13 @@
         <v>3373</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,34 +4778,34 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>891</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>41</v>
+        <v>342</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4814,13 +4814,13 @@
         <v>891</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4835,13 +4835,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4850,13 +4850,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4865,13 +4865,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4880,25 +4880,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>46</v>
+      </c>
+      <c r="D9" s="7">
+        <v>31814</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="7">
         <v>50</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>36028</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="7">
-        <v>46</v>
-      </c>
-      <c r="I9" s="7">
-        <v>31814</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -4933,34 +4933,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>209</v>
+      </c>
+      <c r="D10" s="7">
+        <v>144321</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H10" s="7">
         <v>214</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>156272</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="H10" s="7">
-        <v>209</v>
-      </c>
-      <c r="I10" s="7">
-        <v>144321</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="M10" s="7">
         <v>423</v>
@@ -4969,13 +4969,13 @@
         <v>300593</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4984,34 +4984,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>130</v>
+      </c>
+      <c r="D11" s="7">
+        <v>91091</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H11" s="7">
         <v>106</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>77952</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J11" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="H11" s="7">
-        <v>130</v>
-      </c>
-      <c r="I11" s="7">
-        <v>91091</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="M11" s="7">
         <v>236</v>
@@ -5020,13 +5020,13 @@
         <v>169043</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5035,34 +5035,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>15</v>
+      </c>
+      <c r="D12" s="7">
+        <v>10762</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H12" s="7">
         <v>10</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>7226</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="J12" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="H12" s="7">
-        <v>15</v>
-      </c>
-      <c r="I12" s="7">
-        <v>10762</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M12" s="7">
         <v>25</v>
@@ -5071,13 +5071,13 @@
         <v>17988</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5086,34 +5086,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3768</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H13" s="7">
         <v>3</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>2240</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>3768</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>375</v>
+        <v>127</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>376</v>
+        <v>86</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -5122,13 +5122,13 @@
         <v>6009</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>240</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5137,34 +5137,34 @@
         <v>48</v>
       </c>
       <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
+        <v>617</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H14" s="7">
         <v>3</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>2300</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>617</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>379</v>
+        <v>163</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -5176,10 +5176,10 @@
         <v>170</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5188,25 +5188,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>360</v>
+      </c>
+      <c r="D15" s="7">
+        <v>250559</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="7">
         <v>336</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>245990</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="7">
-        <v>360</v>
-      </c>
-      <c r="I15" s="7">
-        <v>250559</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>54</v>
@@ -5235,40 +5235,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>51</v>
+      </c>
+      <c r="D16" s="7">
+        <v>35971</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="H16" s="7">
         <v>77</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>56158</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="H16" s="7">
-        <v>51</v>
-      </c>
-      <c r="I16" s="7">
-        <v>35971</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="M16" s="7">
         <v>128</v>
@@ -5277,13 +5277,13 @@
         <v>92128</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5292,34 +5292,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>46</v>
+      </c>
+      <c r="D17" s="7">
+        <v>33058</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="H17" s="7">
         <v>22</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>15715</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="H17" s="7">
-        <v>46</v>
-      </c>
-      <c r="I17" s="7">
-        <v>33058</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
@@ -5328,13 +5328,13 @@
         <v>48773</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,34 +5343,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>4</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3253</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H18" s="7">
         <v>8</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>5476</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="H18" s="7">
-        <v>4</v>
-      </c>
-      <c r="I18" s="7">
-        <v>3253</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -5379,13 +5379,13 @@
         <v>8729</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5397,31 +5397,31 @@
         <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>713</v>
+        <v>638</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>129</v>
+        <v>405</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>638</v>
+        <v>713</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>408</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -5430,13 +5430,13 @@
         <v>1351</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5445,34 +5445,34 @@
         <v>48</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>792</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>41</v>
+        <v>410</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>792</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5481,13 +5481,13 @@
         <v>792</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>376</v>
+        <v>93</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>415</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5496,25 +5496,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>103</v>
+      </c>
+      <c r="D21" s="7">
+        <v>73711</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="7">
         <v>108</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>78061</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" s="7">
-        <v>103</v>
-      </c>
-      <c r="I21" s="7">
-        <v>73711</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>54</v>
@@ -5549,34 +5549,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>284</v>
+      </c>
+      <c r="D22" s="7">
+        <v>197723</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H22" s="7">
         <v>325</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>237197</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="H22" s="7">
-        <v>284</v>
-      </c>
-      <c r="I22" s="7">
-        <v>197723</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="M22" s="7">
         <v>609</v>
@@ -5585,13 +5585,13 @@
         <v>434920</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>353</v>
+        <v>420</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5600,34 +5600,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>193</v>
+      </c>
+      <c r="D23" s="7">
+        <v>135159</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="H23" s="7">
         <v>143</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>104035</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="H23" s="7">
-        <v>193</v>
-      </c>
-      <c r="I23" s="7">
-        <v>135159</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>428</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>429</v>
+        <v>211</v>
       </c>
       <c r="M23" s="7">
         <v>336</v>
@@ -5636,13 +5636,13 @@
         <v>239194</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>432</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5651,34 +5651,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>24</v>
+      </c>
+      <c r="D24" s="7">
+        <v>17388</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="H24" s="7">
         <v>18</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>12702</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="J24" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="H24" s="7">
-        <v>24</v>
-      </c>
-      <c r="I24" s="7">
-        <v>17388</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="M24" s="7">
         <v>42</v>
@@ -5687,13 +5687,13 @@
         <v>30089</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5702,34 +5702,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>6</v>
+      </c>
+      <c r="D25" s="7">
+        <v>4406</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H25" s="7">
         <v>5</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>3845</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="H25" s="7">
-        <v>6</v>
-      </c>
-      <c r="I25" s="7">
-        <v>4406</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>410</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>90</v>
+        <v>438</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>163</v>
+        <v>439</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -5741,7 +5741,7 @@
         <v>440</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>170</v>
+        <v>309</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>441</v>
@@ -5753,34 +5753,34 @@
         <v>48</v>
       </c>
       <c r="C26" s="7">
+        <v>2</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1409</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H26" s="7">
         <v>3</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>2300</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="J26" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="H26" s="7">
-        <v>2</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1409</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -5789,13 +5789,13 @@
         <v>3709</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>376</v>
+        <v>93</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>159</v>
+        <v>311</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>440</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5804,25 +5804,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>509</v>
+      </c>
+      <c r="D27" s="7">
+        <v>356085</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="7">
         <v>494</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>360078</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" s="7">
-        <v>509</v>
-      </c>
-      <c r="I27" s="7">
-        <v>356085</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>54</v>
